--- a/yschool/start_ySchool.xlsx
+++ b/yschool/start_ySchool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayrksih\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayrksih\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -524,6 +524,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -939,7 +1035,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -960,7 +1056,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>43354</v>
+        <v>43355</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>

--- a/yschool/start_ySchool.xlsx
+++ b/yschool/start_ySchool.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayrksih\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\yschoolnew\yschool\src\main\webapp\spreadsheet-templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Addmission No.</t>
   </si>
@@ -160,13 +160,49 @@
     <t>Science</t>
   </si>
   <si>
-    <t>tamil</t>
-  </si>
-  <si>
     <t>Thillaiyampathi</t>
   </si>
   <si>
     <t>Thilayampathi Saravanapperumal</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Gamage</t>
+  </si>
+  <si>
+    <t>Malaka</t>
+  </si>
+  <si>
+    <t>Dr chandana Gamage</t>
+  </si>
+  <si>
+    <t>Dr Malaka walapola</t>
   </si>
 </sst>
 </file>
@@ -1032,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1056,13 +1092,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>43355</v>
+        <v>43354</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>12345</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>34567</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1073,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,10 +1168,42 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1130,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1157,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2013</v>
@@ -1168,9 +1258,119 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C3">
+      <c r="C6">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13">
         <v>2013</v>
       </c>
     </row>

--- a/yschool/start_ySchool.xlsx
+++ b/yschool/start_ySchool.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\yschoolnew\yschool\src\main\webapp\spreadsheet-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayrksih\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="259">
   <si>
     <t>Addmission No.</t>
   </si>
@@ -94,15 +94,6 @@
     <t>Current Division</t>
   </si>
   <si>
-    <t>K.Kana</t>
-  </si>
-  <si>
-    <t>Kana Kula</t>
-  </si>
-  <si>
-    <t>31/03/1989</t>
-  </si>
-  <si>
     <t>D</t>
   </si>
   <si>
@@ -124,42 +115,18 @@
     <t>Year</t>
   </si>
   <si>
-    <t>R.Jaykrish</t>
-  </si>
-  <si>
-    <t>Jayakrishnan ranagopalasarma</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>My address is Jaffna</t>
   </si>
   <si>
     <t>My address is Colombo</t>
   </si>
   <si>
-    <t>R. Rajkumar</t>
-  </si>
-  <si>
-    <t>rajagaratnam rajkumar</t>
-  </si>
-  <si>
-    <t>31/12/1989</t>
-  </si>
-  <si>
     <t>my address is Neliyady</t>
   </si>
   <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
     <t>Thillaiyampathi</t>
   </si>
   <si>
@@ -178,21 +145,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Gamage</t>
   </si>
   <si>
@@ -203,13 +155,703 @@
   </si>
   <si>
     <t>Dr Malaka walapola</t>
+  </si>
+  <si>
+    <t>PRAGALATHA PUAPARAJA</t>
+  </si>
+  <si>
+    <t>PREMY ANTON PREMADAS</t>
+  </si>
+  <si>
+    <t>ANUSHA RAJAMAHENTHIRAN</t>
+  </si>
+  <si>
+    <t>GEERTHANA VIGNESWARAN</t>
+  </si>
+  <si>
+    <t>SINTHUJA PUNNIYAMOORTHY</t>
+  </si>
+  <si>
+    <t>VARALUXMY NAVARATNASINGAM</t>
+  </si>
+  <si>
+    <t>SHARANIYA THILANATHAN</t>
+  </si>
+  <si>
+    <t>THIBAHARY KUMARATHEVAN</t>
+  </si>
+  <si>
+    <t>KOBIGA UTHAYAKUMAR</t>
+  </si>
+  <si>
+    <t>REVATHI SANMUGALINGAM</t>
+  </si>
+  <si>
+    <t>SWASTHIKA RATNESWARAN</t>
+  </si>
+  <si>
+    <t>NEETHUJA NAGULATHASAN</t>
+  </si>
+  <si>
+    <t>AKALYA THARMAGULASINGAM</t>
+  </si>
+  <si>
+    <t>ANUSHIKA JEYANATHAN</t>
+  </si>
+  <si>
+    <t>DILUXSHI NATGUNARAJAH</t>
+  </si>
+  <si>
+    <t>GOWTHAMI JEYATHEVASINGAM</t>
+  </si>
+  <si>
+    <t>JASINTHA MARKODA</t>
+  </si>
+  <si>
+    <t>GERESIGA THARMANANTHARAJAH</t>
+  </si>
+  <si>
+    <t>KAJANY KANESALINGAM</t>
+  </si>
+  <si>
+    <t>KARTHIKA PATHMANATHAN</t>
+  </si>
+  <si>
+    <t>KARTHIKA YOGESWARAN</t>
+  </si>
+  <si>
+    <t>KEERTHIGA MURUGANANTHAM</t>
+  </si>
+  <si>
+    <t>KEMA SATKUNANATHAN</t>
+  </si>
+  <si>
+    <t>LUXANA KANESHALINGAM</t>
+  </si>
+  <si>
+    <t>MAJOORA YOGESWARAN</t>
+  </si>
+  <si>
+    <t>MAJURI PARAMALINGAM</t>
+  </si>
+  <si>
+    <t>MEERA KRISHNAKOPAL</t>
+  </si>
+  <si>
+    <t>PAVITHRA MUTHULINGAM</t>
+  </si>
+  <si>
+    <t>PIRAVEENA MAHENDRARAJAH</t>
+  </si>
+  <si>
+    <t>PRAVEENA PARAMESWARAN</t>
+  </si>
+  <si>
+    <t>PUVITHA RAMASAMY</t>
+  </si>
+  <si>
+    <t>PUVANESWARY SARVESWARAN</t>
+  </si>
+  <si>
+    <t>ROSHANI THEVARASA</t>
+  </si>
+  <si>
+    <t>SHAKITHTHIYA SELVARAJAH</t>
+  </si>
+  <si>
+    <t>SHALINI THAVARAJAH</t>
+  </si>
+  <si>
+    <t>SULAXMY KAMESALINGAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWASTHIKA NAGARAJAH </t>
+  </si>
+  <si>
+    <t>SINTHUJA SATSHITHANANTHAN</t>
+  </si>
+  <si>
+    <t>SUTHARSHINI SUTHARSHAN</t>
+  </si>
+  <si>
+    <t>THANUREKA SELVASINGAM</t>
+  </si>
+  <si>
+    <t>THAKSHA KIRUSHNATHASAN</t>
+  </si>
+  <si>
+    <t>THANUSHA SUNTHARALINGAM</t>
+  </si>
+  <si>
+    <t>THARANY PUVANENTHIRAN</t>
+  </si>
+  <si>
+    <t>THULASY UMAKARAN</t>
+  </si>
+  <si>
+    <t>VAISHNAVY THUSIYANTHAN</t>
+  </si>
+  <si>
+    <t>VINOJA SRUTHASAN</t>
+  </si>
+  <si>
+    <t>THUVARAKA SELVARATNAM</t>
+  </si>
+  <si>
+    <t>SIVANCHALI MURUGANANTHAN</t>
+  </si>
+  <si>
+    <t>VETHASORUBI SRITHARAN</t>
+  </si>
+  <si>
+    <t>SHAYINI RAJATNAM</t>
+  </si>
+  <si>
+    <t>SINTHUJA SRIKANTHAN</t>
+  </si>
+  <si>
+    <t>KAJANTHINI SIVAGANACHELVAN</t>
+  </si>
+  <si>
+    <t>SUPIYA SIVALINGAM</t>
+  </si>
+  <si>
+    <t>GULAMAGAL KULASEGARAM</t>
+  </si>
+  <si>
+    <t>SINTHUJA THURAIRAJASINGAM</t>
+  </si>
+  <si>
+    <t>THANIKA THAYANITHY</t>
+  </si>
+  <si>
+    <t>THAYANIGA THAYAPARAN</t>
+  </si>
+  <si>
+    <t>THILAXSY SUNTHARALINGAM</t>
+  </si>
+  <si>
+    <t>NISHANI SIVASAKTHIANANTHARAH</t>
+  </si>
+  <si>
+    <t>VANATHY VEERASINGAM</t>
+  </si>
+  <si>
+    <t>GAYATHIRI YOGESWARAN</t>
+  </si>
+  <si>
+    <t>THARSIGA KRUISHNASHAMY</t>
+  </si>
+  <si>
+    <t>KENSIKA THANGARAH</t>
+  </si>
+  <si>
+    <t>SUGANIYA SIVARAJAH</t>
+  </si>
+  <si>
+    <t>SURESIKA SANNITHY</t>
+  </si>
+  <si>
+    <t>NIROJA VIGNESWARAN</t>
+  </si>
+  <si>
+    <t>SATHANANTHINI SRIKUMAR</t>
+  </si>
+  <si>
+    <t>ANUSIYA KANESALINGAM</t>
+  </si>
+  <si>
+    <t>LUXMY GUNAPALAN</t>
+  </si>
+  <si>
+    <t>THUSHARA RAVIRASHA</t>
+  </si>
+  <si>
+    <t>RAJINTHA JAIME VALENCIA DAVID</t>
+  </si>
+  <si>
+    <t>DILOSHIYA SATHIYASEELAN</t>
+  </si>
+  <si>
+    <t>GUNALINI GUNARATNAM</t>
+  </si>
+  <si>
+    <t>SAJEEVANY SORNAKANTHAN</t>
+  </si>
+  <si>
+    <t>PARANIKA MAHADEVAN</t>
+  </si>
+  <si>
+    <t>KISHONA BALAKRISHANAN</t>
+  </si>
+  <si>
+    <t>NISHANIKA SARVESWARAN</t>
+  </si>
+  <si>
+    <t>SENTHIHA PALANINATHAN</t>
+  </si>
+  <si>
+    <t>ELILARASY THARKURUNATHAN</t>
+  </si>
+  <si>
+    <t>VENUJA MAHANTHRAN</t>
+  </si>
+  <si>
+    <t>KARTHAYAYINI THIRUCHELVAM</t>
+  </si>
+  <si>
+    <t>MATHURA MAHADEVAN</t>
+  </si>
+  <si>
+    <t>MANGALAVASINI SIVAKUMAR</t>
+  </si>
+  <si>
+    <t>MITHUNA KETHEESWARAN</t>
+  </si>
+  <si>
+    <t>SINTHUJA LOGESWARAN</t>
+  </si>
+  <si>
+    <t>RUBINI NAGARAJAH</t>
+  </si>
+  <si>
+    <t>SAIPIRIYA SHANMOUGATHASAN</t>
+  </si>
+  <si>
+    <t>SHYNUJA SIVALOGANATHAN</t>
+  </si>
+  <si>
+    <t>KAJALINI JEYAKUMAR</t>
+  </si>
+  <si>
+    <t>PIRENTHIKA SURESHKUMAR</t>
+  </si>
+  <si>
+    <t>KAJANANY RAVICHANDRAN</t>
+  </si>
+  <si>
+    <t>AARANI SELVARAJAH</t>
+  </si>
+  <si>
+    <t>NIROGI MANIKAVASAKAR</t>
+  </si>
+  <si>
+    <t>PAKEERTHIKA RAJARATNAM</t>
+  </si>
+  <si>
+    <t>NAKULA MANMATHARAJAH</t>
+  </si>
+  <si>
+    <t>KEERTHIKA NAVARATNAVELU</t>
+  </si>
+  <si>
+    <t>SAMPAVI SABANADESAN</t>
+  </si>
+  <si>
+    <t>RAJITHATHEVI GOPALAPILLAI</t>
+  </si>
+  <si>
+    <t>KOKILAVANI SRISKANTHARAJAH</t>
+  </si>
+  <si>
+    <t>THEPIKA VIVEKANANTHAN</t>
+  </si>
+  <si>
+    <t>KAJARUBY SUBRAMANIYAM</t>
+  </si>
+  <si>
+    <t>MAJURI RAMESH</t>
+  </si>
+  <si>
+    <t>JAYANI PATKUNARAJAH</t>
+  </si>
+  <si>
+    <t>THANUSTIKA SIVARAJAH</t>
+  </si>
+  <si>
+    <t>THASHANKINI VIVEKANANTHAN</t>
+  </si>
+  <si>
+    <t>KARTHIKA NITHIYANANTHAN</t>
+  </si>
+  <si>
+    <t>ABARNA KRISHNAKUMAR</t>
+  </si>
+  <si>
+    <t>VIJANTHINI YOGARAJAH</t>
+  </si>
+  <si>
+    <t>AJITHA KRISHNAKUMAR</t>
+  </si>
+  <si>
+    <t>MAJURA SIVAKUMAR</t>
+  </si>
+  <si>
+    <t>DAKSHANA VINAYAGASELVAM</t>
+  </si>
+  <si>
+    <t>BAGAVANI KRISHNANANTHASIVAM</t>
+  </si>
+  <si>
+    <t>THADSHAGINI JEYASINGAM</t>
+  </si>
+  <si>
+    <t>KIRUSHIKA SUTHAN</t>
+  </si>
+  <si>
+    <t>SUGANIYA YOGARAJAH</t>
+  </si>
+  <si>
+    <t>SOPIKA SARAVANAPAVAN</t>
+  </si>
+  <si>
+    <t>LUXMY VELAUTHAN</t>
+  </si>
+  <si>
+    <t>THARMEGA SIVARAJAH</t>
+  </si>
+  <si>
+    <t>HEERTHANA JEYANATHAN</t>
+  </si>
+  <si>
+    <t>KEERTHIKA SITHAMPARANATHAN</t>
+  </si>
+  <si>
+    <t>SATHURTHIKA SATKUNARAJAH</t>
+  </si>
+  <si>
+    <t>KARTHIKA THAYANANTHAN</t>
+  </si>
+  <si>
+    <t>ANUREKA KANAGANAYAGAM</t>
+  </si>
+  <si>
+    <t>CHINESH BADLA JESUTHASAN</t>
+  </si>
+  <si>
+    <t>PIRUNTHAJAINI PIRABAHARAN</t>
+  </si>
+  <si>
+    <t>KOBIGA PULENDRAN</t>
+  </si>
+  <si>
+    <t>JEYAGOWRY SIVANESARAJAH</t>
+  </si>
+  <si>
+    <t>SUVASTHIKA KETHESWARAN</t>
+  </si>
+  <si>
+    <t>SUBANKINI KALITHAS</t>
+  </si>
+  <si>
+    <t>.Sumangali</t>
+  </si>
+  <si>
+    <t>sugirtha raveenthiran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thenuja palakirisnan </t>
+  </si>
+  <si>
+    <t>thurkkajini perinpanathan</t>
+  </si>
+  <si>
+    <t>piriyanthini anathalingam</t>
+  </si>
+  <si>
+    <t>suyani manivanan</t>
+  </si>
+  <si>
+    <t>lareshiya leninrobinsion</t>
+  </si>
+  <si>
+    <t>thanojini hareenthiran</t>
+  </si>
+  <si>
+    <t>nallayini vettivel</t>
+  </si>
+  <si>
+    <t>shobika sinharasa</t>
+  </si>
+  <si>
+    <t>thenuga thuraisingam</t>
+  </si>
+  <si>
+    <t>Jeenetha Sivakumar</t>
+  </si>
+  <si>
+    <t>Thanushiya Sritharan</t>
+  </si>
+  <si>
+    <t>sutharsini thillainadaraja</t>
+  </si>
+  <si>
+    <t>Arulini Subramanium</t>
+  </si>
+  <si>
+    <t>neeiraya panchajuthan</t>
+  </si>
+  <si>
+    <t>vithursa vaikunthanathan</t>
+  </si>
+  <si>
+    <t>sumangali perinpanathan</t>
+  </si>
+  <si>
+    <t>arunthini sivapathasuntharam</t>
+  </si>
+  <si>
+    <t>mathanika chanthirasekaram</t>
+  </si>
+  <si>
+    <t>pirathusa kanthajan</t>
+  </si>
+  <si>
+    <t>thulakjana santhananthsivam</t>
+  </si>
+  <si>
+    <t>Aranya Jeyabalan</t>
+  </si>
+  <si>
+    <t>Jasintha T</t>
+  </si>
+  <si>
+    <t>Sangeetha Arulrajah</t>
+  </si>
+  <si>
+    <t>varjini palaraasan</t>
+  </si>
+  <si>
+    <t>sanjutha pathmarasa</t>
+  </si>
+  <si>
+    <t>suganthini panchacheram</t>
+  </si>
+  <si>
+    <t>Saranya Manokaran</t>
+  </si>
+  <si>
+    <t>Kiruthika Sivanathan</t>
+  </si>
+  <si>
+    <t>vinopa kunasegaram</t>
+  </si>
+  <si>
+    <t>Kisildakeerthana Yogeswaran</t>
+  </si>
+  <si>
+    <t>kuganya selvarasa</t>
+  </si>
+  <si>
+    <t>sahana kailasapilai</t>
+  </si>
+  <si>
+    <t>paviththira logithan</t>
+  </si>
+  <si>
+    <t>mitheregi kanapathipppilai</t>
+  </si>
+  <si>
+    <t>thusanthi muththuraja</t>
+  </si>
+  <si>
+    <t>thanusika vijayaratnam</t>
+  </si>
+  <si>
+    <t>Jerusha yogarasah</t>
+  </si>
+  <si>
+    <t>Santhasala Karunanithi</t>
+  </si>
+  <si>
+    <t>laxshiga nadaraja</t>
+  </si>
+  <si>
+    <t>pratheepa ponararathan</t>
+  </si>
+  <si>
+    <t>niroshiya v</t>
+  </si>
+  <si>
+    <t>nirijana mahalinham</t>
+  </si>
+  <si>
+    <t>thurkkajini kanagalingam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thanappiriya karunathas </t>
+  </si>
+  <si>
+    <t>darajini nadarasalingam</t>
+  </si>
+  <si>
+    <t>logika nadaraja</t>
+  </si>
+  <si>
+    <t>nisanthini saththanathan</t>
+  </si>
+  <si>
+    <t>thadchajini jeyasangar</t>
+  </si>
+  <si>
+    <t>theepika sriskantharaja</t>
+  </si>
+  <si>
+    <t>yogavahani selvalingam</t>
+  </si>
+  <si>
+    <t>nirojini arulraj</t>
+  </si>
+  <si>
+    <t>keerthika jeyaseelan</t>
+  </si>
+  <si>
+    <t>keerthana santhirakumar</t>
+  </si>
+  <si>
+    <t>saranya subramaniyam</t>
+  </si>
+  <si>
+    <t>anusha sivapathasutharam</t>
+  </si>
+  <si>
+    <t>karthika vijayan</t>
+  </si>
+  <si>
+    <t>thusyanthi navaratnam</t>
+  </si>
+  <si>
+    <t>kasthuri sriskanthraja</t>
+  </si>
+  <si>
+    <t>piruntha mohan</t>
+  </si>
+  <si>
+    <t>thanusha sribavan</t>
+  </si>
+  <si>
+    <t>paviththira paramesvaran</t>
+  </si>
+  <si>
+    <t>pakeerthana balakirisnan</t>
+  </si>
+  <si>
+    <t>balamonokari sabampillai</t>
+  </si>
+  <si>
+    <t>kanushtika jeevaraj</t>
+  </si>
+  <si>
+    <t>kavaasthika murukesh</t>
+  </si>
+  <si>
+    <t>kanuja srikaran</t>
+  </si>
+  <si>
+    <t>tharsika rasalingam</t>
+  </si>
+  <si>
+    <t>kirisnavathani jeyarajasingam</t>
+  </si>
+  <si>
+    <t>kavitha kanakaratnam</t>
+  </si>
+  <si>
+    <t>jarmatha mahalingam</t>
+  </si>
+  <si>
+    <t>kejana satkunalingam</t>
+  </si>
+  <si>
+    <t>shanthini santhiranathan</t>
+  </si>
+  <si>
+    <t>shanmukapiriya ranakulenthiran</t>
+  </si>
+  <si>
+    <t>thusanthi balasingam</t>
+  </si>
+  <si>
+    <t>sinthika segar</t>
+  </si>
+  <si>
+    <t>sivanuya punniyamoorthy</t>
+  </si>
+  <si>
+    <t>baviththira mayilvakanam</t>
+  </si>
+  <si>
+    <t>chiyamachelvi palasubramaniyam</t>
+  </si>
+  <si>
+    <t>sobitha sivaraja</t>
+  </si>
+  <si>
+    <t>keriya sothimuruhan</t>
+  </si>
+  <si>
+    <t>niroja vasudevan</t>
+  </si>
+  <si>
+    <t>keerthana thiruchchelvam</t>
+  </si>
+  <si>
+    <t>veshalini rajalingam</t>
+  </si>
+  <si>
+    <t>31/03/1993</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>SAIVISM</t>
+  </si>
+  <si>
+    <t>TAMIL LANGUAGE</t>
+  </si>
+  <si>
+    <t>ENGLISH LANGUAGE</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>SCIENCE &amp; TECHNOLOGYÊ</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>BUSSINESS &amp; ACCOUNTING</t>
+  </si>
+  <si>
+    <t>INFORMATION AND COMMUNICATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>Thirukkumaran</t>
+  </si>
+  <si>
+    <t>selvam Thirukkumaran</t>
+  </si>
+  <si>
+    <t>Arivalaku</t>
+  </si>
+  <si>
+    <t>Muththu Arivalaku</t>
+  </si>
+  <si>
+    <t>Anpumuththu</t>
+  </si>
+  <si>
+    <t>Sevadivu Anpumuththu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,13 +867,25 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,9 +900,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,6 +1317,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -922,16 +1679,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.28515625"/>
-    <col min="3" max="3" width="26.28515625"/>
+    <col min="1" max="1" width="17.28515625"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.28515625"/>
     <col min="5" max="5" width="11"/>
     <col min="6" max="6" width="40.85546875"/>
@@ -967,81 +1725,5567 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>213123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="A2" s="2">
+        <v>18746</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>243</v>
       </c>
       <c r="E2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>344234</v>
-      </c>
-      <c r="B3" t="s">
+        <v>18747</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>18770</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>18781</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>18791</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>18792</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>18808</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E8" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>18818</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" t="s">
+        <v>244</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>18863</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>19204</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19212</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" t="s">
+        <v>244</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>99013</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>18771</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>18794</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>18853</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>243</v>
+      </c>
+      <c r="E16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>18870</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19754</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>243</v>
+      </c>
+      <c r="E18" t="s">
+        <v>244</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18830</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" t="s">
+        <v>244</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18750</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18809</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>18773</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>243</v>
+      </c>
+      <c r="E22" t="s">
+        <v>244</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>18980</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>18939</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
+      </c>
+      <c r="E24" t="s">
+        <v>244</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>19395</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>18748</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>18936</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E27" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>18987</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>18953</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18567</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>18764</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>18765</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>243</v>
+      </c>
+      <c r="E32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>18761</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E33" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>18893</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
+        <v>244</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>18849</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" t="s">
+        <v>244</v>
+      </c>
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>19537</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>18929</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" t="s">
+        <v>243</v>
+      </c>
+      <c r="E37" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37">
+        <v>11</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>18812</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>243</v>
+      </c>
+      <c r="E38" t="s">
+        <v>244</v>
+      </c>
+      <c r="F38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>11</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>18928</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E39" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <v>11</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>18776</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>18877</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>244</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>18804</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>18895</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>243</v>
+      </c>
+      <c r="E43" t="s">
+        <v>244</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>18829</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D44" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>18814</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" t="s">
+        <v>244</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>18826</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
+        <v>244</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>18925</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>243</v>
+      </c>
+      <c r="E47" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>18756</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>243</v>
+      </c>
+      <c r="E48" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>342423</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>18774</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>18777</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>243</v>
+      </c>
+      <c r="E50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50">
+        <v>11</v>
+      </c>
+      <c r="H50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>18780</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>243</v>
+      </c>
+      <c r="E51" t="s">
+        <v>244</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51">
+        <v>11</v>
+      </c>
+      <c r="H51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>18783</v>
+      </c>
+      <c r="B52" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>11</v>
+      </c>
+      <c r="H52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>18787</v>
+      </c>
+      <c r="B53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>18797</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54">
+        <v>11</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>18799</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" t="s">
+        <v>244</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>18810</v>
+      </c>
+      <c r="B56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" t="s">
+        <v>244</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>18816</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" t="s">
+        <v>243</v>
+      </c>
+      <c r="E57" t="s">
+        <v>244</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57">
+        <v>11</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>18822</v>
+      </c>
+      <c r="B58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>11</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>18824</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" t="s">
+        <v>243</v>
+      </c>
+      <c r="E59" t="s">
+        <v>244</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59">
+        <v>11</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>18825</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" t="s">
+        <v>244</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60">
+        <v>11</v>
+      </c>
+      <c r="H60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>18828</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" t="s">
+        <v>244</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61">
+        <v>11</v>
+      </c>
+      <c r="H61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>18831</v>
+      </c>
+      <c r="B62" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" t="s">
+        <v>244</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>18833</v>
+      </c>
+      <c r="B63" t="s">
+        <v>90</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+      <c r="D63" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" t="s">
+        <v>244</v>
+      </c>
+      <c r="F63" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>18835</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" t="s">
+        <v>244</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64">
+        <v>11</v>
+      </c>
+      <c r="H64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>18837</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>92</v>
+      </c>
+      <c r="D65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E65" t="s">
+        <v>244</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65">
+        <v>11</v>
+      </c>
+      <c r="H65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>18839</v>
+      </c>
+      <c r="B66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D66" t="s">
+        <v>243</v>
+      </c>
+      <c r="E66" t="s">
+        <v>244</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66">
+        <v>11</v>
+      </c>
+      <c r="H66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>18842</v>
+      </c>
+      <c r="B67" t="s">
+        <v>94</v>
+      </c>
+      <c r="C67" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" t="s">
+        <v>244</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67">
+        <v>11</v>
+      </c>
+      <c r="H67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>18847</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" t="s">
+        <v>243</v>
+      </c>
+      <c r="E68" t="s">
+        <v>244</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
+      </c>
+      <c r="H68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="5">
+        <v>18848</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D69" t="s">
+        <v>243</v>
+      </c>
+      <c r="E69" t="s">
+        <v>244</v>
+      </c>
+      <c r="F69" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69">
+        <v>11</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>18852</v>
+      </c>
+      <c r="B70" t="s">
+        <v>97</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+      <c r="D70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E70" t="s">
+        <v>244</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>18855</v>
+      </c>
+      <c r="B71" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>98</v>
+      </c>
+      <c r="D71" t="s">
+        <v>243</v>
+      </c>
+      <c r="E71" t="s">
+        <v>244</v>
+      </c>
+      <c r="F71" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71">
+        <v>11</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>18860</v>
+      </c>
+      <c r="B72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D72" t="s">
+        <v>243</v>
+      </c>
+      <c r="E72" t="s">
+        <v>244</v>
+      </c>
+      <c r="F72" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72">
+        <v>11</v>
+      </c>
+      <c r="H72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>18861</v>
+      </c>
+      <c r="B73" t="s">
+        <v>100</v>
+      </c>
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>11</v>
+      </c>
+      <c r="H73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>18864</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" t="s">
+        <v>244</v>
+      </c>
+      <c r="F74" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74">
+        <v>11</v>
+      </c>
+      <c r="H74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>18876</v>
+      </c>
+      <c r="B75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75">
+        <v>11</v>
+      </c>
+      <c r="H75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>18878</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>243</v>
+      </c>
+      <c r="E76" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>18880</v>
+      </c>
+      <c r="B77" t="s">
+        <v>104</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="D77" t="s">
+        <v>243</v>
+      </c>
+      <c r="E77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F77" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77">
+        <v>11</v>
+      </c>
+      <c r="H77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>18890</v>
+      </c>
+      <c r="B78" t="s">
+        <v>105</v>
+      </c>
+      <c r="C78" t="s">
+        <v>105</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+      <c r="E78" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78">
+        <v>11</v>
+      </c>
+      <c r="H78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>18892</v>
+      </c>
+      <c r="B79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" t="s">
+        <v>244</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79">
+        <v>11</v>
+      </c>
+      <c r="H79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>18896</v>
+      </c>
+      <c r="B80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" t="s">
+        <v>107</v>
+      </c>
+      <c r="D80" t="s">
+        <v>243</v>
+      </c>
+      <c r="E80" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+      <c r="H80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>18897</v>
+      </c>
+      <c r="B81" t="s">
+        <v>108</v>
+      </c>
+      <c r="C81" t="s">
+        <v>108</v>
+      </c>
+      <c r="D81" t="s">
+        <v>243</v>
+      </c>
+      <c r="E81" t="s">
+        <v>244</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>11</v>
+      </c>
+      <c r="H81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>18899</v>
+      </c>
+      <c r="B82" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" t="s">
+        <v>244</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82">
+        <v>11</v>
+      </c>
+      <c r="H82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>18946</v>
+      </c>
+      <c r="B83" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" t="s">
+        <v>110</v>
+      </c>
+      <c r="D83" t="s">
+        <v>243</v>
+      </c>
+      <c r="E83" t="s">
+        <v>244</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83">
+        <v>11</v>
+      </c>
+      <c r="H83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>19191</v>
+      </c>
+      <c r="B84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C84" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" t="s">
+        <v>243</v>
+      </c>
+      <c r="E84" t="s">
+        <v>244</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>11</v>
+      </c>
+      <c r="H84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>19453</v>
+      </c>
+      <c r="B85" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85">
+        <v>11</v>
+      </c>
+      <c r="H85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>19469</v>
+      </c>
+      <c r="B86" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D86" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" t="s">
+        <v>244</v>
+      </c>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86">
+        <v>11</v>
+      </c>
+      <c r="H86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>19538</v>
+      </c>
+      <c r="B87" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" t="s">
+        <v>114</v>
+      </c>
+      <c r="D87" t="s">
+        <v>243</v>
+      </c>
+      <c r="E87" t="s">
+        <v>244</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>11</v>
+      </c>
+      <c r="H87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>19688</v>
+      </c>
+      <c r="B88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" t="s">
+        <v>244</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88">
+        <v>11</v>
+      </c>
+      <c r="H88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>99014</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>243</v>
+      </c>
+      <c r="E89" t="s">
+        <v>244</v>
+      </c>
+      <c r="F89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89">
+        <v>11</v>
+      </c>
+      <c r="H89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>18745</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" t="s">
+        <v>244</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90">
+        <v>11</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>18753</v>
+      </c>
+      <c r="B91" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" t="s">
+        <v>244</v>
+      </c>
+      <c r="F91" t="s">
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <v>11</v>
+      </c>
+      <c r="H91" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>18754</v>
+      </c>
+      <c r="B92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" t="s">
+        <v>243</v>
+      </c>
+      <c r="E92" t="s">
+        <v>244</v>
+      </c>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92">
+        <v>11</v>
+      </c>
+      <c r="H92" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="5">
+        <v>18757</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" t="s">
+        <v>244</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>11</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>18760</v>
+      </c>
+      <c r="B94" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="H94" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>99015</v>
+      </c>
+      <c r="B95" t="s">
+        <v>122</v>
+      </c>
+      <c r="C95" t="s">
+        <v>122</v>
+      </c>
+      <c r="D95" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" t="s">
+        <v>244</v>
+      </c>
+      <c r="F95" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95">
+        <v>11</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>18778</v>
+      </c>
+      <c r="B96" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>244</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96">
+        <v>11</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>18785</v>
+      </c>
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" t="s">
+        <v>124</v>
+      </c>
+      <c r="D97" t="s">
+        <v>243</v>
+      </c>
+      <c r="E97" t="s">
+        <v>244</v>
+      </c>
+      <c r="F97" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97">
+        <v>11</v>
+      </c>
+      <c r="H97" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>18789</v>
+      </c>
+      <c r="B98" t="s">
+        <v>125</v>
+      </c>
+      <c r="C98" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" t="s">
+        <v>243</v>
+      </c>
+      <c r="E98" t="s">
+        <v>244</v>
+      </c>
+      <c r="F98" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+      <c r="H98" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>18800</v>
+      </c>
+      <c r="B99" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
+        <v>243</v>
+      </c>
+      <c r="E99" t="s">
+        <v>244</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>11</v>
+      </c>
+      <c r="H99" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>18811</v>
+      </c>
+      <c r="B100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C100" t="s">
+        <v>127</v>
+      </c>
+      <c r="D100" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" t="s">
+        <v>244</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>11</v>
+      </c>
+      <c r="H100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>18815</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101">
+        <v>11</v>
+      </c>
+      <c r="H101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>18819</v>
+      </c>
+      <c r="B102" t="s">
+        <v>129</v>
+      </c>
+      <c r="C102" t="s">
+        <v>129</v>
+      </c>
+      <c r="D102" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" t="s">
+        <v>244</v>
+      </c>
+      <c r="F102" t="s">
+        <v>17</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>18820</v>
+      </c>
+      <c r="B103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C103" t="s">
+        <v>130</v>
+      </c>
+      <c r="D103" t="s">
+        <v>243</v>
+      </c>
+      <c r="E103" t="s">
+        <v>244</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103">
+        <v>11</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>99016</v>
+      </c>
+      <c r="B104" t="s">
+        <v>131</v>
+      </c>
+      <c r="C104" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E104" t="s">
+        <v>244</v>
+      </c>
+      <c r="F104" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104">
+        <v>11</v>
+      </c>
+      <c r="H104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>18846</v>
+      </c>
+      <c r="B105" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" t="s">
+        <v>132</v>
+      </c>
+      <c r="D105" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" t="s">
+        <v>244</v>
+      </c>
+      <c r="F105" t="s">
+        <v>17</v>
+      </c>
+      <c r="G105">
+        <v>11</v>
+      </c>
+      <c r="H105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>18850</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>243</v>
+      </c>
+      <c r="E106" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="H106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>18858</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>243</v>
+      </c>
+      <c r="E107" t="s">
+        <v>244</v>
+      </c>
+      <c r="F107" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107">
+        <v>11</v>
+      </c>
+      <c r="H107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>18866</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108" t="s">
+        <v>135</v>
+      </c>
+      <c r="D108" t="s">
+        <v>243</v>
+      </c>
+      <c r="E108" t="s">
+        <v>244</v>
+      </c>
+      <c r="F108" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>18871</v>
+      </c>
+      <c r="B109" t="s">
+        <v>136</v>
+      </c>
+      <c r="C109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109" t="s">
+        <v>243</v>
+      </c>
+      <c r="E109" t="s">
+        <v>244</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>18874</v>
+      </c>
+      <c r="B110" t="s">
+        <v>137</v>
+      </c>
+      <c r="C110" t="s">
+        <v>137</v>
+      </c>
+      <c r="D110" t="s">
+        <v>243</v>
+      </c>
+      <c r="E110" t="s">
+        <v>244</v>
+      </c>
+      <c r="F110" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110">
+        <v>11</v>
+      </c>
+      <c r="H110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>18879</v>
+      </c>
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" t="s">
+        <v>138</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" t="s">
+        <v>244</v>
+      </c>
+      <c r="F111" t="s">
+        <v>17</v>
+      </c>
+      <c r="G111">
+        <v>11</v>
+      </c>
+      <c r="H111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>18883</v>
+      </c>
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+      <c r="C112" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s">
+        <v>243</v>
+      </c>
+      <c r="E112" t="s">
+        <v>244</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112">
+        <v>11</v>
+      </c>
+      <c r="H112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>18884</v>
+      </c>
+      <c r="B113" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" t="s">
+        <v>140</v>
+      </c>
+      <c r="D113" t="s">
+        <v>243</v>
+      </c>
+      <c r="E113" t="s">
+        <v>244</v>
+      </c>
+      <c r="F113" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>18900</v>
+      </c>
+      <c r="B114" t="s">
+        <v>141</v>
+      </c>
+      <c r="C114" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" t="s">
+        <v>243</v>
+      </c>
+      <c r="E114" t="s">
+        <v>244</v>
+      </c>
+      <c r="F114" t="s">
+        <v>17</v>
+      </c>
+      <c r="G114">
+        <v>11</v>
+      </c>
+      <c r="H114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>18919</v>
+      </c>
+      <c r="B115" t="s">
+        <v>142</v>
+      </c>
+      <c r="C115" t="s">
+        <v>142</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+      <c r="E115" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>11</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>18923</v>
+      </c>
+      <c r="B116" t="s">
+        <v>143</v>
+      </c>
+      <c r="C116" t="s">
+        <v>143</v>
+      </c>
+      <c r="D116" t="s">
+        <v>243</v>
+      </c>
+      <c r="E116" t="s">
+        <v>244</v>
+      </c>
+      <c r="F116" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116">
+        <v>11</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>18926</v>
+      </c>
+      <c r="B117" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" t="s">
+        <v>144</v>
+      </c>
+      <c r="D117" t="s">
+        <v>243</v>
+      </c>
+      <c r="E117" t="s">
+        <v>244</v>
+      </c>
+      <c r="F117" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>18933</v>
+      </c>
+      <c r="B118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C118" t="s">
+        <v>145</v>
+      </c>
+      <c r="D118" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118">
+        <v>11</v>
+      </c>
+      <c r="H118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>18934</v>
+      </c>
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" t="s">
+        <v>243</v>
+      </c>
+      <c r="E119" t="s">
+        <v>244</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119">
+        <v>11</v>
+      </c>
+      <c r="H119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>18942</v>
+      </c>
+      <c r="B120" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" t="s">
+        <v>243</v>
+      </c>
+      <c r="E120" t="s">
+        <v>244</v>
+      </c>
+      <c r="F120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G120">
+        <v>11</v>
+      </c>
+      <c r="H120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>18951</v>
+      </c>
+      <c r="B121" t="s">
+        <v>148</v>
+      </c>
+      <c r="C121" t="s">
+        <v>148</v>
+      </c>
+      <c r="D121" t="s">
+        <v>243</v>
+      </c>
+      <c r="E121" t="s">
+        <v>244</v>
+      </c>
+      <c r="F121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121">
+        <v>11</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>18995</v>
+      </c>
+      <c r="B122" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" t="s">
+        <v>149</v>
+      </c>
+      <c r="D122" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" t="s">
+        <v>244</v>
+      </c>
+      <c r="F122" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122">
+        <v>11</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>19188</v>
+      </c>
+      <c r="B123" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" t="s">
+        <v>150</v>
+      </c>
+      <c r="D123" t="s">
+        <v>243</v>
+      </c>
+      <c r="E123" t="s">
+        <v>244</v>
+      </c>
+      <c r="F123" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>19192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" t="s">
+        <v>151</v>
+      </c>
+      <c r="D124" t="s">
+        <v>243</v>
+      </c>
+      <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124">
+        <v>11</v>
+      </c>
+      <c r="H124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>19470</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" t="s">
+        <v>152</v>
+      </c>
+      <c r="D125" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125">
+        <v>11</v>
+      </c>
+      <c r="H125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>19737</v>
+      </c>
+      <c r="B126" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" t="s">
+        <v>153</v>
+      </c>
+      <c r="D126" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" t="s">
+        <v>244</v>
+      </c>
+      <c r="F126" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126">
+        <v>11</v>
+      </c>
+      <c r="H126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>19738</v>
+      </c>
+      <c r="B127" t="s">
+        <v>154</v>
+      </c>
+      <c r="C127" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" t="s">
+        <v>243</v>
+      </c>
+      <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127">
+        <v>11</v>
+      </c>
+      <c r="H127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>19752</v>
+      </c>
+      <c r="B128" t="s">
+        <v>155</v>
+      </c>
+      <c r="C128" t="s">
+        <v>155</v>
+      </c>
+      <c r="D128" t="s">
+        <v>243</v>
+      </c>
+      <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128">
+        <v>11</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>19763</v>
+      </c>
+      <c r="B129" t="s">
+        <v>156</v>
+      </c>
+      <c r="C129" t="s">
+        <v>156</v>
+      </c>
+      <c r="D129" t="s">
+        <v>243</v>
+      </c>
+      <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
+        <v>17</v>
+      </c>
+      <c r="G129">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>19806</v>
+      </c>
+      <c r="B130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C130" t="s">
+        <v>157</v>
+      </c>
+      <c r="D130" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
+        <v>18</v>
+      </c>
+      <c r="G130">
+        <v>11</v>
+      </c>
+      <c r="H130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>20245</v>
+      </c>
+      <c r="B131" t="s">
+        <v>158</v>
+      </c>
+      <c r="C131" t="s">
+        <v>158</v>
+      </c>
+      <c r="D131" t="s">
+        <v>243</v>
+      </c>
+      <c r="E131" t="s">
+        <v>244</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131">
+        <v>11</v>
+      </c>
+      <c r="H131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>18751</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D132" t="s">
+        <v>243</v>
+      </c>
+      <c r="E132" t="s">
+        <v>244</v>
+      </c>
+      <c r="F132" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132">
+        <v>11</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A133" s="7">
+        <v>18763</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D133" t="s">
+        <v>243</v>
+      </c>
+      <c r="E133" t="s">
+        <v>244</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133">
+        <v>11</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A134" s="7">
+        <v>18766</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D134" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>99017</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D135" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135" t="s">
+        <v>244</v>
+      </c>
+      <c r="F135" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135">
+        <v>11</v>
+      </c>
+      <c r="H135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A136" s="7">
+        <v>18801</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D136" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
+        <v>244</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="H136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="7">
+        <v>18802</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D137" t="s">
+        <v>243</v>
+      </c>
+      <c r="E137" t="s">
+        <v>244</v>
+      </c>
+      <c r="F137" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137">
+        <v>11</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="7">
+        <v>18803</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D138" t="s">
+        <v>243</v>
+      </c>
+      <c r="E138" t="s">
+        <v>244</v>
+      </c>
+      <c r="F138" t="s">
+        <v>17</v>
+      </c>
+      <c r="G138">
+        <v>11</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="7">
+        <v>18807</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D139" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" t="s">
+        <v>244</v>
+      </c>
+      <c r="F139" t="s">
+        <v>18</v>
+      </c>
+      <c r="G139">
+        <v>11</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>99018</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D140" t="s">
+        <v>243</v>
+      </c>
+      <c r="E140" t="s">
+        <v>244</v>
+      </c>
+      <c r="F140" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140">
+        <v>11</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A141" s="7">
+        <v>18821</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D141" t="s">
+        <v>243</v>
+      </c>
+      <c r="E141" t="s">
+        <v>244</v>
+      </c>
+      <c r="F141" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141">
+        <v>11</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A142" s="7">
+        <v>18823</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D142" t="s">
+        <v>243</v>
+      </c>
+      <c r="E142" t="s">
+        <v>244</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142">
+        <v>11</v>
+      </c>
+      <c r="H142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A143" s="7">
+        <v>18827</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" t="s">
+        <v>243</v>
+      </c>
+      <c r="E143" t="s">
+        <v>244</v>
+      </c>
+      <c r="F143" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143">
+        <v>11</v>
+      </c>
+      <c r="H143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>99019</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D144" t="s">
+        <v>243</v>
+      </c>
+      <c r="E144" t="s">
+        <v>244</v>
+      </c>
+      <c r="F144" t="s">
+        <v>17</v>
+      </c>
+      <c r="G144">
+        <v>11</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A145" s="7">
+        <v>18843</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" t="s">
+        <v>243</v>
+      </c>
+      <c r="E145" t="s">
+        <v>244</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145">
+        <v>11</v>
+      </c>
+      <c r="H145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
+        <v>18845</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" t="s">
+        <v>243</v>
+      </c>
+      <c r="E146" t="s">
+        <v>244</v>
+      </c>
+      <c r="F146" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146">
+        <v>11</v>
+      </c>
+      <c r="H146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
+        <v>18851</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D147" t="s">
+        <v>243</v>
+      </c>
+      <c r="E147" t="s">
+        <v>244</v>
+      </c>
+      <c r="F147" t="s">
+        <v>17</v>
+      </c>
+      <c r="G147">
+        <v>11</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
+        <v>18856</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D148" t="s">
+        <v>243</v>
+      </c>
+      <c r="E148" t="s">
+        <v>244</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148">
+        <v>11</v>
+      </c>
+      <c r="H148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
+        <v>18862</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D149" t="s">
+        <v>243</v>
+      </c>
+      <c r="E149" t="s">
+        <v>244</v>
+      </c>
+      <c r="F149" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149">
+        <v>11</v>
+      </c>
+      <c r="H149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
+        <v>18867</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" t="s">
+        <v>243</v>
+      </c>
+      <c r="E150" t="s">
+        <v>244</v>
+      </c>
+      <c r="F150" t="s">
+        <v>17</v>
+      </c>
+      <c r="G150">
+        <v>11</v>
+      </c>
+      <c r="H150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
+        <v>18868</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D151" t="s">
+        <v>243</v>
+      </c>
+      <c r="E151" t="s">
+        <v>244</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151">
+        <v>11</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
+        <v>18869</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D152" t="s">
+        <v>243</v>
+      </c>
+      <c r="E152" t="s">
+        <v>244</v>
+      </c>
+      <c r="F152" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152">
+        <v>11</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A153" s="8">
+        <v>18873</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D153" t="s">
+        <v>243</v>
+      </c>
+      <c r="E153" t="s">
+        <v>244</v>
+      </c>
+      <c r="F153" t="s">
+        <v>17</v>
+      </c>
+      <c r="G153">
+        <v>11</v>
+      </c>
+      <c r="H153" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
+        <v>18875</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D154" t="s">
+        <v>243</v>
+      </c>
+      <c r="E154" t="s">
+        <v>244</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154">
+        <v>11</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A155" s="7">
+        <v>18885</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D155" t="s">
+        <v>243</v>
+      </c>
+      <c r="E155" t="s">
+        <v>244</v>
+      </c>
+      <c r="F155" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155">
+        <v>11</v>
+      </c>
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A156" s="7">
+        <v>18889</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D156" t="s">
+        <v>243</v>
+      </c>
+      <c r="E156" t="s">
+        <v>244</v>
+      </c>
+      <c r="F156" t="s">
+        <v>17</v>
+      </c>
+      <c r="G156">
+        <v>11</v>
+      </c>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A157" s="7">
+        <v>18894</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157" t="s">
+        <v>243</v>
+      </c>
+      <c r="E157" t="s">
+        <v>244</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157">
+        <v>11</v>
+      </c>
+      <c r="H157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A158" s="7">
+        <v>18901</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D158" t="s">
+        <v>243</v>
+      </c>
+      <c r="E158" t="s">
+        <v>244</v>
+      </c>
+      <c r="F158" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158">
+        <v>11</v>
+      </c>
+      <c r="H158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A159" s="7">
+        <v>18903</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D159" t="s">
+        <v>243</v>
+      </c>
+      <c r="E159" t="s">
+        <v>244</v>
+      </c>
+      <c r="F159" t="s">
+        <v>17</v>
+      </c>
+      <c r="G159">
+        <v>11</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A160" s="7">
+        <v>18904</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D160" t="s">
+        <v>243</v>
+      </c>
+      <c r="E160" t="s">
+        <v>244</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160">
+        <v>11</v>
+      </c>
+      <c r="H160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>18920</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D161" t="s">
+        <v>243</v>
+      </c>
+      <c r="E161" t="s">
+        <v>244</v>
+      </c>
+      <c r="F161" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161">
+        <v>11</v>
+      </c>
+      <c r="H161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
+        <v>18935</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D162" t="s">
+        <v>243</v>
+      </c>
+      <c r="E162" t="s">
+        <v>244</v>
+      </c>
+      <c r="F162" t="s">
+        <v>17</v>
+      </c>
+      <c r="G162">
+        <v>11</v>
+      </c>
+      <c r="H162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
+        <v>18947</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D163" t="s">
+        <v>243</v>
+      </c>
+      <c r="E163" t="s">
+        <v>244</v>
+      </c>
+      <c r="F163" t="s">
+        <v>18</v>
+      </c>
+      <c r="G163">
+        <v>11</v>
+      </c>
+      <c r="H163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>18948</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D164" t="s">
+        <v>243</v>
+      </c>
+      <c r="E164" t="s">
+        <v>244</v>
+      </c>
+      <c r="F164" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164">
+        <v>11</v>
+      </c>
+      <c r="H164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>99020</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D165" t="s">
+        <v>243</v>
+      </c>
+      <c r="E165" t="s">
+        <v>244</v>
+      </c>
+      <c r="F165" t="s">
+        <v>17</v>
+      </c>
+      <c r="G165">
+        <v>11</v>
+      </c>
+      <c r="H165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>18998</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D166" t="s">
+        <v>243</v>
+      </c>
+      <c r="E166" t="s">
+        <v>244</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166">
+        <v>11</v>
+      </c>
+      <c r="H166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A167" s="7">
+        <v>19187</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D167" t="s">
+        <v>243</v>
+      </c>
+      <c r="E167" t="s">
+        <v>244</v>
+      </c>
+      <c r="F167" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167">
+        <v>11</v>
+      </c>
+      <c r="H167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>19374</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D168" t="s">
+        <v>243</v>
+      </c>
+      <c r="E168" t="s">
+        <v>244</v>
+      </c>
+      <c r="F168" t="s">
+        <v>17</v>
+      </c>
+      <c r="G168">
+        <v>11</v>
+      </c>
+      <c r="H168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>19467</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D169" t="s">
+        <v>243</v>
+      </c>
+      <c r="E169" t="s">
+        <v>244</v>
+      </c>
+      <c r="F169" t="s">
+        <v>18</v>
+      </c>
+      <c r="G169">
+        <v>11</v>
+      </c>
+      <c r="H169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>19473</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D170" t="s">
+        <v>243</v>
+      </c>
+      <c r="E170" t="s">
+        <v>244</v>
+      </c>
+      <c r="F170" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>19528</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D171" t="s">
+        <v>243</v>
+      </c>
+      <c r="E171" t="s">
+        <v>244</v>
+      </c>
+      <c r="F171" t="s">
+        <v>17</v>
+      </c>
+      <c r="G171">
+        <v>11</v>
+      </c>
+      <c r="H171" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>99021</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D172" t="s">
+        <v>243</v>
+      </c>
+      <c r="E172" t="s">
+        <v>244</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172">
+        <v>11</v>
+      </c>
+      <c r="H172" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>99022</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D173" t="s">
+        <v>243</v>
+      </c>
+      <c r="E173" t="s">
+        <v>244</v>
+      </c>
+      <c r="F173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173">
+        <v>11</v>
+      </c>
+      <c r="H173" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>99023</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D174" t="s">
+        <v>243</v>
+      </c>
+      <c r="E174" t="s">
+        <v>244</v>
+      </c>
+      <c r="F174" t="s">
+        <v>17</v>
+      </c>
+      <c r="G174">
+        <v>11</v>
+      </c>
+      <c r="H174" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>99024</v>
+      </c>
+      <c r="B175" t="s">
+        <v>202</v>
+      </c>
+      <c r="C175" t="s">
+        <v>202</v>
+      </c>
+      <c r="D175" t="s">
+        <v>243</v>
+      </c>
+      <c r="E175" t="s">
+        <v>244</v>
+      </c>
+      <c r="F175" t="s">
+        <v>18</v>
+      </c>
+      <c r="G175">
+        <v>11</v>
+      </c>
+      <c r="H175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>18769</v>
+      </c>
+      <c r="B176" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" t="s">
+        <v>203</v>
+      </c>
+      <c r="D176" t="s">
+        <v>243</v>
+      </c>
+      <c r="E176" t="s">
+        <v>244</v>
+      </c>
+      <c r="F176" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176">
+        <v>11</v>
+      </c>
+      <c r="H176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>18782</v>
+      </c>
+      <c r="B177" t="s">
+        <v>204</v>
+      </c>
+      <c r="C177" t="s">
+        <v>204</v>
+      </c>
+      <c r="D177" t="s">
+        <v>243</v>
+      </c>
+      <c r="E177" t="s">
+        <v>244</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177">
+        <v>11</v>
+      </c>
+      <c r="H177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>18784</v>
+      </c>
+      <c r="B178" t="s">
+        <v>205</v>
+      </c>
+      <c r="C178" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178" t="s">
+        <v>243</v>
+      </c>
+      <c r="E178" t="s">
+        <v>244</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178">
+        <v>11</v>
+      </c>
+      <c r="H178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>18790</v>
+      </c>
+      <c r="B179" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" t="s">
+        <v>206</v>
+      </c>
+      <c r="D179" t="s">
+        <v>243</v>
+      </c>
+      <c r="E179" t="s">
+        <v>244</v>
+      </c>
+      <c r="F179" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179">
+        <v>11</v>
+      </c>
+      <c r="H179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>18793</v>
+      </c>
+      <c r="B180" t="s">
+        <v>207</v>
+      </c>
+      <c r="C180" t="s">
+        <v>207</v>
+      </c>
+      <c r="D180" t="s">
+        <v>243</v>
+      </c>
+      <c r="E180" t="s">
+        <v>244</v>
+      </c>
+      <c r="F180" t="s">
+        <v>17</v>
+      </c>
+      <c r="G180">
+        <v>11</v>
+      </c>
+      <c r="H180" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>18805</v>
+      </c>
+      <c r="B181" t="s">
+        <v>208</v>
+      </c>
+      <c r="C181" t="s">
+        <v>208</v>
+      </c>
+      <c r="D181" t="s">
+        <v>243</v>
+      </c>
+      <c r="E181" t="s">
+        <v>244</v>
+      </c>
+      <c r="F181" t="s">
+        <v>18</v>
+      </c>
+      <c r="G181">
+        <v>11</v>
+      </c>
+      <c r="H181" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>18806</v>
+      </c>
+      <c r="B182" t="s">
+        <v>209</v>
+      </c>
+      <c r="C182" t="s">
+        <v>209</v>
+      </c>
+      <c r="D182" t="s">
+        <v>243</v>
+      </c>
+      <c r="E182" t="s">
+        <v>244</v>
+      </c>
+      <c r="F182" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182">
+        <v>11</v>
+      </c>
+      <c r="H182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>18813</v>
+      </c>
+      <c r="B183" t="s">
+        <v>210</v>
+      </c>
+      <c r="C183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" t="s">
+        <v>243</v>
+      </c>
+      <c r="E183" t="s">
+        <v>244</v>
+      </c>
+      <c r="F183" t="s">
+        <v>17</v>
+      </c>
+      <c r="G183">
+        <v>11</v>
+      </c>
+      <c r="H183" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>18832</v>
+      </c>
+      <c r="B184" t="s">
+        <v>211</v>
+      </c>
+      <c r="C184" t="s">
+        <v>211</v>
+      </c>
+      <c r="D184" t="s">
+        <v>243</v>
+      </c>
+      <c r="E184" t="s">
+        <v>244</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184">
+        <v>11</v>
+      </c>
+      <c r="H184" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>18834</v>
+      </c>
+      <c r="B185" t="s">
+        <v>212</v>
+      </c>
+      <c r="C185" t="s">
+        <v>212</v>
+      </c>
+      <c r="D185" t="s">
+        <v>243</v>
+      </c>
+      <c r="E185" t="s">
+        <v>244</v>
+      </c>
+      <c r="F185" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185">
+        <v>11</v>
+      </c>
+      <c r="H185" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>18836</v>
+      </c>
+      <c r="B186" t="s">
+        <v>213</v>
+      </c>
+      <c r="C186" t="s">
+        <v>213</v>
+      </c>
+      <c r="D186" t="s">
+        <v>243</v>
+      </c>
+      <c r="E186" t="s">
+        <v>244</v>
+      </c>
+      <c r="F186" t="s">
+        <v>17</v>
+      </c>
+      <c r="G186">
+        <v>11</v>
+      </c>
+      <c r="H186" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>99025</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D187" t="s">
+        <v>243</v>
+      </c>
+      <c r="E187" t="s">
+        <v>244</v>
+      </c>
+      <c r="F187" t="s">
+        <v>18</v>
+      </c>
+      <c r="G187">
+        <v>11</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>18854</v>
+      </c>
+      <c r="B188" t="s">
+        <v>215</v>
+      </c>
+      <c r="C188" t="s">
+        <v>215</v>
+      </c>
+      <c r="D188" t="s">
+        <v>243</v>
+      </c>
+      <c r="E188" t="s">
+        <v>244</v>
+      </c>
+      <c r="F188" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188">
+        <v>11</v>
+      </c>
+      <c r="H188" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>18859</v>
+      </c>
+      <c r="B189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C189" t="s">
+        <v>216</v>
+      </c>
+      <c r="D189" t="s">
+        <v>243</v>
+      </c>
+      <c r="E189" t="s">
+        <v>244</v>
+      </c>
+      <c r="F189" t="s">
+        <v>17</v>
+      </c>
+      <c r="G189">
+        <v>11</v>
+      </c>
+      <c r="H189" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>99026</v>
+      </c>
+      <c r="B190" t="s">
+        <v>217</v>
+      </c>
+      <c r="C190" t="s">
+        <v>217</v>
+      </c>
+      <c r="D190" t="s">
+        <v>243</v>
+      </c>
+      <c r="E190" t="s">
+        <v>244</v>
+      </c>
+      <c r="F190" t="s">
+        <v>18</v>
+      </c>
+      <c r="G190">
+        <v>11</v>
+      </c>
+      <c r="H190" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>18881</v>
+      </c>
+      <c r="B191" t="s">
+        <v>218</v>
+      </c>
+      <c r="C191" t="s">
+        <v>218</v>
+      </c>
+      <c r="D191" t="s">
+        <v>243</v>
+      </c>
+      <c r="E191" t="s">
+        <v>244</v>
+      </c>
+      <c r="F191" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191">
+        <v>11</v>
+      </c>
+      <c r="H191" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>18882</v>
+      </c>
+      <c r="B192" t="s">
+        <v>219</v>
+      </c>
+      <c r="C192" t="s">
+        <v>219</v>
+      </c>
+      <c r="D192" t="s">
+        <v>243</v>
+      </c>
+      <c r="E192" t="s">
+        <v>244</v>
+      </c>
+      <c r="F192" t="s">
+        <v>17</v>
+      </c>
+      <c r="G192">
+        <v>11</v>
+      </c>
+      <c r="H192" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>18886</v>
+      </c>
+      <c r="B193" t="s">
+        <v>220</v>
+      </c>
+      <c r="C193" t="s">
+        <v>220</v>
+      </c>
+      <c r="D193" t="s">
+        <v>243</v>
+      </c>
+      <c r="E193" t="s">
+        <v>244</v>
+      </c>
+      <c r="F193" t="s">
+        <v>18</v>
+      </c>
+      <c r="G193">
+        <v>11</v>
+      </c>
+      <c r="H193" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>18913</v>
+      </c>
+      <c r="B194" t="s">
+        <v>221</v>
+      </c>
+      <c r="C194" t="s">
+        <v>221</v>
+      </c>
+      <c r="D194" t="s">
+        <v>243</v>
+      </c>
+      <c r="E194" t="s">
+        <v>244</v>
+      </c>
+      <c r="F194" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194">
+        <v>11</v>
+      </c>
+      <c r="H194" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>18916</v>
+      </c>
+      <c r="B195" t="s">
+        <v>222</v>
+      </c>
+      <c r="C195" t="s">
+        <v>222</v>
+      </c>
+      <c r="D195" t="s">
+        <v>243</v>
+      </c>
+      <c r="E195" t="s">
+        <v>244</v>
+      </c>
+      <c r="F195" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195">
+        <v>11</v>
+      </c>
+      <c r="H195" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>18921</v>
+      </c>
+      <c r="B196" t="s">
+        <v>223</v>
+      </c>
+      <c r="C196" t="s">
+        <v>223</v>
+      </c>
+      <c r="D196" t="s">
+        <v>243</v>
+      </c>
+      <c r="E196" t="s">
+        <v>244</v>
+      </c>
+      <c r="F196" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196">
+        <v>11</v>
+      </c>
+      <c r="H196" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>99027</v>
+      </c>
+      <c r="B197" t="s">
+        <v>224</v>
+      </c>
+      <c r="C197" t="s">
+        <v>224</v>
+      </c>
+      <c r="D197" t="s">
+        <v>243</v>
+      </c>
+      <c r="E197" t="s">
+        <v>244</v>
+      </c>
+      <c r="F197" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>18922</v>
+      </c>
+      <c r="B198" t="s">
+        <v>225</v>
+      </c>
+      <c r="C198" t="s">
+        <v>225</v>
+      </c>
+      <c r="D198" t="s">
+        <v>243</v>
+      </c>
+      <c r="E198" t="s">
+        <v>244</v>
+      </c>
+      <c r="F198" t="s">
+        <v>17</v>
+      </c>
+      <c r="G198">
+        <v>11</v>
+      </c>
+      <c r="H198" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>18924</v>
+      </c>
+      <c r="B199" t="s">
+        <v>226</v>
+      </c>
+      <c r="C199" t="s">
+        <v>226</v>
+      </c>
+      <c r="D199" t="s">
+        <v>243</v>
+      </c>
+      <c r="E199" t="s">
+        <v>244</v>
+      </c>
+      <c r="F199" t="s">
+        <v>18</v>
+      </c>
+      <c r="G199">
+        <v>11</v>
+      </c>
+      <c r="H199" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>99028</v>
+      </c>
+      <c r="B200" t="s">
+        <v>227</v>
+      </c>
+      <c r="C200" t="s">
+        <v>227</v>
+      </c>
+      <c r="D200" t="s">
+        <v>243</v>
+      </c>
+      <c r="E200" t="s">
+        <v>244</v>
+      </c>
+      <c r="F200" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200">
+        <v>11</v>
+      </c>
+      <c r="H200" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>18937</v>
+      </c>
+      <c r="B201" t="s">
+        <v>228</v>
+      </c>
+      <c r="C201" t="s">
+        <v>228</v>
+      </c>
+      <c r="D201" t="s">
+        <v>243</v>
+      </c>
+      <c r="E201" t="s">
+        <v>244</v>
+      </c>
+      <c r="F201" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201">
+        <v>11</v>
+      </c>
+      <c r="H201" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>18943</v>
+      </c>
+      <c r="B202" t="s">
+        <v>229</v>
+      </c>
+      <c r="C202" t="s">
+        <v>229</v>
+      </c>
+      <c r="D202" t="s">
+        <v>243</v>
+      </c>
+      <c r="E202" t="s">
+        <v>244</v>
+      </c>
+      <c r="F202" t="s">
+        <v>18</v>
+      </c>
+      <c r="G202">
+        <v>11</v>
+      </c>
+      <c r="H202" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>19224</v>
+      </c>
+      <c r="B203" t="s">
+        <v>230</v>
+      </c>
+      <c r="C203" t="s">
+        <v>230</v>
+      </c>
+      <c r="D203" t="s">
+        <v>243</v>
+      </c>
+      <c r="E203" t="s">
+        <v>244</v>
+      </c>
+      <c r="F203" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203">
+        <v>11</v>
+      </c>
+      <c r="H203" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>19431</v>
+      </c>
+      <c r="B204" t="s">
+        <v>231</v>
+      </c>
+      <c r="C204" t="s">
+        <v>231</v>
+      </c>
+      <c r="D204" t="s">
+        <v>243</v>
+      </c>
+      <c r="E204" t="s">
+        <v>244</v>
+      </c>
+      <c r="F204" t="s">
+        <v>17</v>
+      </c>
+      <c r="G204">
+        <v>11</v>
+      </c>
+      <c r="H204" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>19466</v>
+      </c>
+      <c r="B205" t="s">
+        <v>232</v>
+      </c>
+      <c r="C205" t="s">
+        <v>232</v>
+      </c>
+      <c r="D205" t="s">
+        <v>243</v>
+      </c>
+      <c r="E205" t="s">
+        <v>244</v>
+      </c>
+      <c r="F205" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205">
+        <v>11</v>
+      </c>
+      <c r="H205" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>19477</v>
+      </c>
+      <c r="B206" t="s">
+        <v>233</v>
+      </c>
+      <c r="C206" t="s">
+        <v>233</v>
+      </c>
+      <c r="D206" t="s">
+        <v>243</v>
+      </c>
+      <c r="E206" t="s">
+        <v>244</v>
+      </c>
+      <c r="F206" t="s">
+        <v>16</v>
+      </c>
+      <c r="G206">
+        <v>11</v>
+      </c>
+      <c r="H206" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>19514</v>
+      </c>
+      <c r="B207" t="s">
+        <v>234</v>
+      </c>
+      <c r="C207" t="s">
+        <v>234</v>
+      </c>
+      <c r="D207" t="s">
+        <v>243</v>
+      </c>
+      <c r="E207" t="s">
+        <v>244</v>
+      </c>
+      <c r="F207" t="s">
+        <v>17</v>
+      </c>
+      <c r="G207">
+        <v>11</v>
+      </c>
+      <c r="H207" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>19691</v>
+      </c>
+      <c r="B208" t="s">
+        <v>235</v>
+      </c>
+      <c r="C208" t="s">
+        <v>235</v>
+      </c>
+      <c r="D208" t="s">
+        <v>243</v>
+      </c>
+      <c r="E208" t="s">
+        <v>244</v>
+      </c>
+      <c r="F208" t="s">
+        <v>18</v>
+      </c>
+      <c r="G208">
+        <v>11</v>
+      </c>
+      <c r="H208" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>19740</v>
+      </c>
+      <c r="B209" t="s">
+        <v>236</v>
+      </c>
+      <c r="C209" t="s">
+        <v>236</v>
+      </c>
+      <c r="D209" t="s">
+        <v>243</v>
+      </c>
+      <c r="E209" t="s">
+        <v>244</v>
+      </c>
+      <c r="F209" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209">
+        <v>11</v>
+      </c>
+      <c r="H209" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>19751</v>
+      </c>
+      <c r="B210" t="s">
+        <v>237</v>
+      </c>
+      <c r="C210" t="s">
+        <v>237</v>
+      </c>
+      <c r="D210" t="s">
+        <v>243</v>
+      </c>
+      <c r="E210" t="s">
+        <v>244</v>
+      </c>
+      <c r="F210" t="s">
+        <v>17</v>
+      </c>
+      <c r="G210">
+        <v>11</v>
+      </c>
+      <c r="H210" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>19926</v>
+      </c>
+      <c r="B211" t="s">
+        <v>238</v>
+      </c>
+      <c r="C211" t="s">
+        <v>238</v>
+      </c>
+      <c r="D211" t="s">
+        <v>243</v>
+      </c>
+      <c r="E211" t="s">
+        <v>244</v>
+      </c>
+      <c r="F211" t="s">
+        <v>18</v>
+      </c>
+      <c r="G211">
+        <v>11</v>
+      </c>
+      <c r="H211" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>19962</v>
+      </c>
+      <c r="B212" t="s">
+        <v>239</v>
+      </c>
+      <c r="C212" t="s">
+        <v>239</v>
+      </c>
+      <c r="D212" t="s">
+        <v>243</v>
+      </c>
+      <c r="E212" t="s">
+        <v>244</v>
+      </c>
+      <c r="F212" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212">
+        <v>11</v>
+      </c>
+      <c r="H212" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20007</v>
+      </c>
+      <c r="B213" t="s">
+        <v>240</v>
+      </c>
+      <c r="C213" t="s">
+        <v>240</v>
+      </c>
+      <c r="D213" t="s">
+        <v>243</v>
+      </c>
+      <c r="E213" t="s">
+        <v>244</v>
+      </c>
+      <c r="F213" t="s">
+        <v>17</v>
+      </c>
+      <c r="G213">
+        <v>11</v>
+      </c>
+      <c r="H213" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20010</v>
+      </c>
+      <c r="B214" t="s">
+        <v>241</v>
+      </c>
+      <c r="C214" t="s">
+        <v>241</v>
+      </c>
+      <c r="D214" t="s">
+        <v>243</v>
+      </c>
+      <c r="E214" t="s">
+        <v>244</v>
+      </c>
+      <c r="F214" t="s">
+        <v>18</v>
+      </c>
+      <c r="G214">
+        <v>11</v>
+      </c>
+      <c r="H214" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20012</v>
+      </c>
+      <c r="B215" t="s">
+        <v>242</v>
+      </c>
+      <c r="C215" t="s">
+        <v>242</v>
+      </c>
+      <c r="D215" t="s">
+        <v>243</v>
+      </c>
+      <c r="E215" t="s">
+        <v>244</v>
+      </c>
+      <c r="F215" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215">
+        <v>11</v>
+      </c>
+      <c r="H215" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1068,20 +7312,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="17.28515625"/>
+    <col min="1" max="2" width="17.28515625"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1095,32 +7341,65 @@
         <v>43354</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>12345</v>
+        <v>43355</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>34567</v>
+        <v>43356</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>43357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>43358</v>
+      </c>
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>43359</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -1131,28 +7410,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="17.28515625"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="1025" width="17.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1160,7 +7440,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1168,7 +7448,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>247</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1176,7 +7456,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>248</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1184,26 +7464,34 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>249</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>250</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="B8">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +7511,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1233,13 +7521,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1247,10 +7535,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1258,10 +7546,10 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1269,10 +7557,10 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1280,10 +7568,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1291,10 +7579,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1302,10 +7590,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>2013</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1313,10 +7601,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1324,10 +7612,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1335,10 +7623,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1346,10 +7634,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1357,10 +7645,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,10 +7656,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>2013</v>
+        <v>2009</v>
       </c>
     </row>
   </sheetData>

--- a/yschool/start_ySchool.xlsx
+++ b/yschool/start_ySchool.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\yschoolnew\yschool\src\main\webapp\spreadsheet-templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROJECTS\yschoolnew\yschool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="staffs" sheetId="2" r:id="rId2"/>
-    <sheet name="subjects" sheetId="3" r:id="rId3"/>
-    <sheet name="classes" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Grades" sheetId="6" r:id="rId1"/>
+    <sheet name="Divisions" sheetId="7" r:id="rId2"/>
+    <sheet name="Classrooms" sheetId="4" r:id="rId3"/>
+    <sheet name="Subjects" sheetId="3" r:id="rId4"/>
+    <sheet name="Modules" sheetId="8" r:id="rId5"/>
+    <sheet name="Students" sheetId="1" r:id="rId6"/>
+    <sheet name="Staffs" sheetId="2" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="5" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Addmission No.</t>
   </si>
@@ -109,21 +112,9 @@
     <t>staff No</t>
   </si>
   <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>isoptional</t>
-  </si>
-  <si>
     <t>Grade</t>
   </si>
   <si>
-    <t>Dvision</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>R.Jaykrish</t>
   </si>
   <si>
@@ -203,6 +194,21 @@
   </si>
   <si>
     <t>Dr Malaka walapola</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Grades</t>
+  </si>
+  <si>
+    <t>Divisions</t>
+  </si>
+  <si>
+    <t>Subject Name</t>
+  </si>
+  <si>
+    <t>isOptional</t>
   </si>
 </sst>
 </file>
@@ -656,6 +662,294 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 4"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -921,6 +1215,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="17.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Check grade" error="check the grade value you entered." promptTitle="Format" prompt="1 to 13" sqref="A1">
+      <formula1>1</formula1>
+      <formula2>13</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Division" prompt="like a,b,c,d,e..." sqref="B1">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="17.28515625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -980,10 +1703,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -997,25 +1720,25 @@
         <v>344234</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1023,25 +1746,25 @@
         <v>342423</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1095,10 +1818,10 @@
         <v>43354</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1106,10 +1829,10 @@
         <v>12345</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1117,10 +1840,10 @@
         <v>34567</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1129,268 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="17.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Optional Subject?" error="check the data you entered." promptTitle="Format" prompt="enter 1 if the subject is optional- subject, otherwise leave it blank." sqref="B1">
-      <formula1>0</formula1>
-      <formula2>1</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1025" width="17.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>2013</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Check grade" error="check the grade value you entered." promptTitle="Format" prompt="1 to 13" sqref="A1">
-      <formula1>1</formula1>
-      <formula2>13</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Division" prompt="like a,b,c,d,e..." sqref="B1">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
